--- a/templates/bdo_auto/SPMADRID VS REPORT TEMPLATE.xlsx
+++ b/templates/bdo_auto/SPMADRID VS REPORT TEMPLATE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SPM\Documents\UPDATE_FILE\VSCODE\bpi_automation\templates\bdo_auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58506FB6-56BD-4832-B970-465CF1275CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{279F7B5E-44C2-46BF-8792-FCC7CD6EB4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E31D3E65-5E9A-4CF3-9A11-555122ACFFF6}"/>
   </bookViews>
